--- a/MESS_Management.xlsx
+++ b/MESS_Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mess_Meneger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MealExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04EE65C-FF0D-40B2-80AB-B116E75F14EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9CA91-37EF-4B79-8A4C-2B1DBB057FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="858" xr2:uid="{509D6E15-11FD-47BB-9E7C-F8775653EE68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>TOTAL MEAL</t>
   </si>
@@ -160,46 +160,10 @@
     <t>Any Problem ? CONTACT  :  https://t.me/mdbappy21</t>
   </si>
   <si>
-    <t>Thrusday</t>
+    <t xml:space="preserve">Frize Bill :        </t>
   </si>
   <si>
-    <t>Version:2.3</t>
-  </si>
-  <si>
-    <t>Bappy</t>
-  </si>
-  <si>
-    <t>Shuvo</t>
-  </si>
-  <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
-    <t>Bornil</t>
-  </si>
-  <si>
-    <t>Auntu</t>
-  </si>
-  <si>
-    <t>Sabbir</t>
-  </si>
-  <si>
-    <t>Sameul Vai</t>
-  </si>
-  <si>
-    <t>Raihan</t>
-  </si>
-  <si>
-    <t>Shovon</t>
-  </si>
-  <si>
-    <t>Fahim</t>
-  </si>
-  <si>
-    <t>Ashik</t>
-  </si>
-  <si>
-    <t>Rafi</t>
+    <t>Version:2.4</t>
   </si>
 </sst>
 </file>
@@ -375,12 +339,6 @@
       <family val="5"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Algerian"/>
-      <family val="5"/>
-    </font>
-    <font>
       <b/>
       <sz val="36"/>
       <color theme="0"/>
@@ -422,8 +380,15 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <i/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +512,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,9 +1118,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,59 +1214,35 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1324,21 +1274,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1391,19 +1326,139 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,12 +1474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1436,173 +1485,163 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1725,13 +1764,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1752,16 +1784,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FF339933"/>
+      <color rgb="FF00CC00"/>
       <color rgb="FFE76719"/>
       <color rgb="FF007E39"/>
       <color rgb="FF351BF9"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FF00CC00"/>
       <color rgb="FF333399"/>
       <color rgb="FF0099FF"/>
       <color rgb="FF0066FF"/>
-      <color rgb="FFFF6600"/>
-      <color rgb="FF808000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2073,10 +2105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D573F9-168D-42E9-86CE-FBB75548956D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K57" sqref="J57:K57"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2085,8 +2117,9 @@
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="19.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
     <col min="11" max="12" width="20" style="1" customWidth="1"/>
@@ -2117,143 +2150,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="151" t="s">
+      <c r="B1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="D1" s="111" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="14" t="str">
+        <f>TEXT(B65,"dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="F1" s="11" t="str">
+        <f>TEXT(B66,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="G1" s="11" t="str">
+        <f>TEXT(B67,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="H1" s="11" t="str">
+        <f>TEXT(B68,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="I1" s="11" t="str">
+        <f>TEXT(B62,"dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="J1" s="11" t="str">
         <f>TEXT(B63,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="K1" s="11" t="str">
+        <f>TEXT(B64,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="L1" s="11" t="str">
+        <f>TEXT(B65,"dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="M1" s="11" t="str">
+        <f>TEXT(B66,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="N1" s="11" t="str">
+        <f>TEXT(B67,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="O1" s="11" t="str">
+        <f>TEXT(B68,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="P1" s="11" t="str">
+        <f>TEXT(B62,"dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="F1" s="11" t="str">
+      <c r="Q1" s="11" t="str">
+        <f>TEXT(B63,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="R1" s="11" t="str">
         <f>TEXT(B64,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="S1" s="11" t="str">
+        <f>TEXT(B65,"dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="T1" s="11" t="str">
+        <f>TEXT(B66,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="U1" s="11" t="str">
+        <f>TEXT(B67,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="V1" s="11" t="str">
+        <f>TEXT(B68,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="W1" s="11" t="str">
+        <f>TEXT(B62,"dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="X1" s="11" t="str">
+        <f>TEXT(B63,"dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="G1" s="11" t="str">
+      <c r="Y1" s="11" t="str">
+        <f>TEXT(B64,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="Z1" s="11" t="str">
         <f>TEXT(B65,"dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="AA1" s="11" t="str">
+        <f>TEXT(B66,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="AB1" s="11" t="str">
+        <f>TEXT(B67,"dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="AC1" s="11" t="str">
+        <f>TEXT(B68,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="AD1" s="11" t="str">
+        <f>TEXT(B62,"dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="AE1" s="11" t="str">
+        <f>TEXT(B63,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="AF1" s="12" t="str">
+        <f>TEXT(B64,"dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="H1" s="11" t="str">
+      <c r="AG1" s="20" t="str">
+        <f>TEXT(B65,"dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="AH1" s="20" t="str">
         <f>TEXT(B66,"dddd")</f>
-        <v>Monday</v>
-      </c>
-      <c r="I1" s="11" t="str">
-        <f>TEXT(B60,"dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="J1" s="11" t="str">
-        <f>TEXT(B61,"dddd")</f>
+      <c r="AI1" s="159" t="str">
+        <f>TEXT(B67,"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="K1" s="11" t="str">
-        <f>TEXT(B62,"dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="L1" s="11" t="str">
-        <f>TEXT(B63,"dddd")</f>
-        <v>Friday</v>
-      </c>
-      <c r="M1" s="11" t="str">
-        <f>TEXT(B64,"dddd")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="N1" s="11" t="str">
-        <f>TEXT(B65,"dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="O1" s="11" t="str">
-        <f>TEXT(B66,"dddd")</f>
-        <v>Monday</v>
-      </c>
-      <c r="P1" s="11" t="str">
-        <f>TEXT(B60,"dddd")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="Q1" s="11" t="str">
-        <f>TEXT(B61,"dddd")</f>
-        <v>Wednesday</v>
-      </c>
-      <c r="R1" s="11" t="str">
-        <f>TEXT(B62,"dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="S1" s="11" t="str">
-        <f>TEXT(B63,"dddd")</f>
-        <v>Friday</v>
-      </c>
-      <c r="T1" s="11" t="str">
-        <f>TEXT(B64,"dddd")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="U1" s="11" t="str">
-        <f>TEXT(B65,"dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="V1" s="11" t="str">
-        <f>TEXT(B66,"dddd")</f>
-        <v>Monday</v>
-      </c>
-      <c r="W1" s="11" t="str">
-        <f>TEXT(B60,"dddd")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="X1" s="11" t="str">
-        <f>TEXT(B61,"dddd")</f>
-        <v>Wednesday</v>
-      </c>
-      <c r="Y1" s="11" t="str">
-        <f>TEXT(B62,"dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="Z1" s="11" t="str">
-        <f>TEXT(B63,"dddd")</f>
-        <v>Friday</v>
-      </c>
-      <c r="AA1" s="11" t="str">
-        <f>TEXT(B64,"dddd")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="AB1" s="11" t="str">
-        <f>TEXT(B65,"dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="AC1" s="11" t="str">
-        <f>TEXT(B66,"dddd")</f>
-        <v>Monday</v>
-      </c>
-      <c r="AD1" s="11" t="str">
-        <f>TEXT(B60,"dddd")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="AE1" s="11" t="str">
-        <f>TEXT(B61,"dddd")</f>
-        <v>Wednesday</v>
-      </c>
-      <c r="AF1" s="12" t="str">
-        <f>TEXT(B62,"dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="AG1" s="21" t="str">
-        <f>TEXT(B63,"dddd")</f>
-        <v>Friday</v>
-      </c>
-      <c r="AH1" s="21" t="str">
-        <f>TEXT(B64,"dddd")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="AI1" s="21" t="str">
-        <f>TEXT(B65,"dddd")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="AJ1" s="119" t="s">
+      <c r="AJ1" s="80" t="s">
         <v>34</v>
       </c>
       <c r="AK1"/>
@@ -2261,10 +2294,10 @@
       <c r="AM1"/>
     </row>
     <row r="2" spans="1:41" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="15">
         <v>1</v>
       </c>
@@ -2349,16 +2382,16 @@
       <c r="AF2" s="18">
         <v>28</v>
       </c>
-      <c r="AG2" s="20">
+      <c r="AG2" s="19">
         <v>29</v>
       </c>
-      <c r="AH2" s="20">
+      <c r="AH2" s="19">
         <v>30</v>
       </c>
-      <c r="AI2" s="19">
+      <c r="AI2" s="160">
         <v>31</v>
       </c>
-      <c r="AJ2" s="120"/>
+      <c r="AJ2" s="81"/>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
@@ -2366,50 +2399,50 @@
       <c r="AO2" s="2"/>
     </row>
     <row r="3" spans="1:41" ht="22.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="31">
+      <c r="A3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="30">
         <f t="shared" ref="B3:B19" si="0">SUM(E3:AI3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31">
         <f>IF(AND(B3&lt;AI41, B3&gt;0),AI41,B3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="45"/>
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
@@ -2417,50 +2450,50 @@
       <c r="AO3" s="2"/>
     </row>
     <row r="4" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34">
         <f>IF(AND(B4&lt;AI41, B4&gt;0),AI41,B4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="46"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="164"/>
+      <c r="AJ4" s="45"/>
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
@@ -2468,700 +2501,700 @@
       <c r="AO4" s="2"/>
     </row>
     <row r="5" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="36">
+      <c r="A5" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37">
         <f>IF(AND(B5&lt;AI41, B5&gt;0),AI41,B5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="46"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="45"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="33">
+      <c r="A6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34">
         <f>IF(AND(B6&lt;AI41, B6&gt;0),AI41,B6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="46"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="45"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
     </row>
     <row r="7" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="36">
+      <c r="A7" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37">
         <f>IF(AND(B7&lt;AI41, B7&gt;0),AI41,B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="46"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="45"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
     </row>
     <row r="8" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="33">
+      <c r="A8" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34">
         <f>IF(AND(B8&lt;AI41, B8&gt;0),AI41,B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="46"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="164"/>
+      <c r="AJ8" s="45"/>
     </row>
     <row r="9" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="36">
+      <c r="A9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37">
         <f>IF(AND(B9&lt;AI41, B9&gt;0),AI41,B9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="46"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="164"/>
+      <c r="AJ9" s="45"/>
     </row>
     <row r="10" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="33">
+      <c r="A10" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34">
         <f>IF(AND(B10&lt;AI41, B10&gt;0),AI41,B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="46"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="164"/>
+      <c r="AJ10" s="45"/>
     </row>
     <row r="11" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="A11" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37">
         <f>IF(AND(B11&lt;AI41, B11&gt;0),AI41,B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="46"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="45"/>
     </row>
     <row r="12" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="33">
+      <c r="A12" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="39">
+      <c r="C12" s="33"/>
+      <c r="D12" s="38">
         <f>IF(AND(B12&lt;AI41, B12&gt;0),AI41,B12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="46"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="166"/>
+      <c r="AJ12" s="45"/>
     </row>
     <row r="13" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="36">
+      <c r="A13" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="40">
+      <c r="C13" s="36"/>
+      <c r="D13" s="39">
         <f>IF(AND(B13&lt;AI41, B13&gt;0),AI41,B13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="46"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="166"/>
+      <c r="AJ13" s="45"/>
     </row>
     <row r="14" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="33">
+      <c r="A14" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="39">
+      <c r="C14" s="33"/>
+      <c r="D14" s="38">
         <f>IF(AND(B14&lt;AI41, B14&gt;0),AI41,B14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="46"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="166"/>
+      <c r="AJ14" s="45"/>
     </row>
     <row r="15" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40">
+      <c r="C15" s="36"/>
+      <c r="D15" s="39">
         <f>IF(AND(B15&lt;AI41, B15&gt;0),AI41,B15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="46"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="166"/>
+      <c r="AJ15" s="45"/>
     </row>
     <row r="16" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="39">
+      <c r="C16" s="33"/>
+      <c r="D16" s="38">
         <f>IF(AND(B16&lt;AI41, B16&gt;0),AI41,B16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="46"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="166"/>
+      <c r="AJ16" s="45"/>
     </row>
     <row r="17" spans="1:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="40">
+      <c r="C17" s="41"/>
+      <c r="D17" s="39">
         <f>IF(AND(B17&lt;AI41, B17&gt;0),AI41,B17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="64"/>
-      <c r="AJ17" s="46"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="166"/>
+      <c r="AJ17" s="45"/>
     </row>
     <row r="18" spans="1:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="39">
+      <c r="C18" s="42"/>
+      <c r="D18" s="38">
         <f>IF(AND(B18&lt;AI41, B18&gt;0),AI41,B18)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="46"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="166"/>
+      <c r="AJ18" s="45"/>
     </row>
     <row r="19" spans="1:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="40">
+      <c r="C19" s="31"/>
+      <c r="D19" s="39">
         <f>IF(AND(B19&lt;AI41, B19&gt;0),AI41,B19)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="46"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="166"/>
+      <c r="AJ19" s="45"/>
     </row>
     <row r="20" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -3179,328 +3212,328 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W20" s="28">
+      <c r="W20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X20" s="28">
+      <c r="X20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="28">
+      <c r="Y20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="28">
+      <c r="Z20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="28">
+      <c r="AA20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="28">
+      <c r="AB20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="28">
+      <c r="AC20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="28">
+      <c r="AD20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="28">
+      <c r="AE20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="28">
+      <c r="AF20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="29">
+      <c r="AG20" s="28">
         <f>SUM(AG3:AG19)</f>
         <v>0</v>
       </c>
-      <c r="AH20" s="29">
+      <c r="AH20" s="28">
         <f>SUM(AH3:AH19)</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="29">
+      <c r="AI20" s="161">
         <f>SUM(AI3:AI19)</f>
         <v>0</v>
       </c>
-      <c r="AJ20" s="47"/>
+      <c r="AJ20" s="46"/>
     </row>
     <row r="21" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="144"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="145"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="145"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="45"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="44"/>
     </row>
     <row r="22" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="158">
-        <f>IF(B20&gt;0,SUM(E22:AI22)+300-C42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="45"/>
+      <c r="B22" s="112">
+        <f>IF(B20&gt;0,SUM(E22:AI22)+K45-C42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="162"/>
+      <c r="AJ22" s="44"/>
     </row>
     <row r="23" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="145"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="145"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="45"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="106"/>
+      <c r="AJ23" s="44"/>
     </row>
     <row r="24" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="152">
+      <c r="G24" s="138">
         <f>IF(B20&gt;0,(B42-B22)-F42+300,IF((B42&gt;0),(B42-B22)-(F42),0))</f>
         <v>0</v>
       </c>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="108">
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="115">
         <f>IF(B20&gt;0,B22/B20,0)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="114">
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="121">
         <f>IF(D20&gt;0,B22/D20,0)</f>
         <v>0</v>
       </c>
-      <c r="W24" s="114"/>
-      <c r="X24" s="114"/>
-      <c r="Y24" s="114"/>
-      <c r="Z24" s="114"/>
-      <c r="AA24" s="114"/>
-      <c r="AB24" s="114"/>
-      <c r="AC24" s="114"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="131">
-        <f ca="1">_xlfn.DAYS(AK25,TODAY())</f>
-        <v>30</v>
-      </c>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="134" t="s">
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="121"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="92">
+        <f ca="1">IF(_xlfn.DAYS(AK25,TODAY())&lt;0,0,_xlfn.DAYS(AK25,TODAY()))</f>
+        <v>29</v>
+      </c>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" s="134"/>
-      <c r="AI24" s="135"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="26"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f t="shared" ref="A25:A41" si="2">A3</f>
-        <v>Bappy</v>
-      </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="78">
+        <v>-</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="66">
         <f>IF(B3&gt;0,(B25-(M24*B3)-C25-K43),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="67">
         <f>IF(D3&gt;0,(B25-(V24*D3)-K43-C25),0)</f>
         <v>0</v>
       </c>
@@ -3508,38 +3541,38 @@
         <f t="shared" ref="F25:F41" si="3">IF(B3=0,"MEAL OFF",IF(B25&gt;0,"Paid","Not given"))</f>
         <v>MEAL OFF</v>
       </c>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="115"/>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="115"/>
-      <c r="AB25" s="115"/>
-      <c r="AC25" s="115"/>
-      <c r="AD25" s="115"/>
-      <c r="AE25" s="132"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="136"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="27">
-        <v>45382</v>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="122"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="97"/>
+      <c r="AH25" s="97"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="26">
+        <v>45412</v>
       </c>
       <c r="AL25" s="1" t="s">
         <v>7</v>
@@ -3548,15 +3581,15 @@
     <row r="26" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Shuvo</v>
-      </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="81">
+        <v>-</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="69">
         <f>IF(B4&gt;0,(B26-(M24*B4)-K43-C26),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="70">
         <f>IF(D4&gt;0,(B26-(V24*D4)-K43-C26),0)</f>
         <v>0</v>
       </c>
@@ -3564,49 +3597,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="115"/>
-      <c r="Z26" s="115"/>
-      <c r="AA26" s="115"/>
-      <c r="AB26" s="115"/>
-      <c r="AC26" s="115"/>
-      <c r="AD26" s="115"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="136"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="137"/>
-      <c r="AJ26" s="45"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="122"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="97"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="44"/>
     </row>
     <row r="27" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Abdullah</v>
-      </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="78">
+        <v>-</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="66">
         <f>IF(B5&gt;0,(B27-(M24*B5)-K43-C27),0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="79">
+      <c r="E27" s="67">
         <f>IF(D5&gt;0,(B27-(V24*D5)-K43-C27),0)</f>
         <v>0</v>
       </c>
@@ -3614,49 +3647,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="115"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="115"/>
-      <c r="Z27" s="115"/>
-      <c r="AA27" s="115"/>
-      <c r="AB27" s="115"/>
-      <c r="AC27" s="115"/>
-      <c r="AD27" s="115"/>
-      <c r="AE27" s="132"/>
-      <c r="AF27" s="132"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="137"/>
-      <c r="AJ27" s="45"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="97"/>
+      <c r="AH27" s="97"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="44"/>
     </row>
     <row r="28" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Bornil</v>
-      </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="81">
+        <v>-</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="69">
         <f>IF(B6&gt;0,(B28-(M24*B6)-K43-C28),0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="70">
         <f>IF(D6&gt;0,(B28-(V24*D6)-K43-C28),0)</f>
         <v>0</v>
       </c>
@@ -3664,49 +3697,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="115"/>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="115"/>
-      <c r="AB28" s="115"/>
-      <c r="AC28" s="115"/>
-      <c r="AD28" s="115"/>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="45"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="97"/>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="44"/>
     </row>
     <row r="29" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Auntu</v>
-      </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="78">
+        <v>-</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="66">
         <f>IF(B7&gt;0,(B29-(M24*B7)-K43-C29),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="67">
         <f>IF(D7&gt;0,(B29-(V24*D7)-K43-C29),0)</f>
         <v>0</v>
       </c>
@@ -3714,49 +3747,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="115"/>
-      <c r="W29" s="115"/>
-      <c r="X29" s="115"/>
-      <c r="Y29" s="115"/>
-      <c r="Z29" s="115"/>
-      <c r="AA29" s="115"/>
-      <c r="AB29" s="115"/>
-      <c r="AC29" s="115"/>
-      <c r="AD29" s="115"/>
-      <c r="AE29" s="132"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="137"/>
-      <c r="AJ29" s="45"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="97"/>
+      <c r="AH29" s="97"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="44"/>
     </row>
     <row r="30" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Sabbir</v>
-      </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="81">
+        <v>-</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="69">
         <f>IF(B8&gt;0,(B30-(M24*B8)-K43-C30),0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="70">
         <f>IF(D8&gt;0,(B30-(V24*D8)-K43-C30),0)</f>
         <v>0</v>
       </c>
@@ -3764,49 +3797,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="115"/>
-      <c r="AD30" s="115"/>
-      <c r="AE30" s="132"/>
-      <c r="AF30" s="132"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="137"/>
-      <c r="AJ30" s="45"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="122"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="97"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="44"/>
     </row>
     <row r="31" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Sameul Vai</v>
-      </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="78">
+        <v>-</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="66">
         <f>IF(B9&gt;0,(B31-(M24*B9)-K43-C31),0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="67">
         <f>IF(D9&gt;0,(B31-(V24*D9)-K43-C31),0)</f>
         <v>0</v>
       </c>
@@ -3814,49 +3847,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="115"/>
-      <c r="Y31" s="115"/>
-      <c r="Z31" s="115"/>
-      <c r="AA31" s="115"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="115"/>
-      <c r="AD31" s="115"/>
-      <c r="AE31" s="132"/>
-      <c r="AF31" s="132"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="137"/>
-      <c r="AJ31" s="45"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="97"/>
+      <c r="AH31" s="97"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="44"/>
     </row>
     <row r="32" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Raihan</v>
-      </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="81">
+        <v>-</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="69">
         <f>IF(B10&gt;0,(B32-(M24*B10)-K43-C32),0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="70">
         <f>IF(D10&gt;0,(B32-(V24*D10)-K43-C32),0)</f>
         <v>0</v>
       </c>
@@ -3864,49 +3897,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="115"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="115"/>
-      <c r="Z32" s="115"/>
-      <c r="AA32" s="115"/>
-      <c r="AB32" s="115"/>
-      <c r="AC32" s="115"/>
-      <c r="AD32" s="115"/>
-      <c r="AE32" s="132"/>
-      <c r="AF32" s="132"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="137"/>
-      <c r="AJ32" s="45"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="93"/>
+      <c r="AG32" s="97"/>
+      <c r="AH32" s="97"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="44"/>
     </row>
     <row r="33" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Shovon</v>
-      </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="78">
+        <v>-</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="66">
         <f>IF(B11&gt;0,(B33-(M24*B11)-K43-C33),0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="79">
+      <c r="E33" s="67">
         <f>IF(D11&gt;0,(B33-(V24*D11)-K43-C33),0)</f>
         <v>0</v>
       </c>
@@ -3914,49 +3947,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="115"/>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="115"/>
-      <c r="AB33" s="115"/>
-      <c r="AC33" s="115"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="132"/>
-      <c r="AF33" s="132"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="137"/>
-      <c r="AJ33" s="45"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="122"/>
+      <c r="AC33" s="122"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="44"/>
     </row>
     <row r="34" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Fahim</v>
-      </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="81">
+        <v>-</v>
+      </c>
+      <c r="B34" s="68"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="69">
         <f>IF(B12&gt;0,(B34-(M24*B12)-K43-C34),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="70">
         <f>IF(D12&gt;0,(B34-(V24*D12)-K43-C34),0)</f>
         <v>0</v>
       </c>
@@ -3964,49 +3997,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="115"/>
-      <c r="Z34" s="115"/>
-      <c r="AA34" s="115"/>
-      <c r="AB34" s="115"/>
-      <c r="AC34" s="115"/>
-      <c r="AD34" s="115"/>
-      <c r="AE34" s="132"/>
-      <c r="AF34" s="132"/>
-      <c r="AG34" s="136"/>
-      <c r="AH34" s="136"/>
-      <c r="AI34" s="137"/>
-      <c r="AJ34" s="45"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="122"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="122"/>
+      <c r="AC34" s="122"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="44"/>
     </row>
     <row r="35" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Ashik</v>
-      </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="78">
+        <v>-</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="66">
         <f>IF(B13&gt;0,(B35-(M24*B13)-K43-C35),0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="67">
         <f>IF(D13&gt;0,(B35-(V24*D13)-K43-C35),0)</f>
         <v>0</v>
       </c>
@@ -4014,49 +4047,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="115"/>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="115"/>
-      <c r="AB35" s="115"/>
-      <c r="AC35" s="115"/>
-      <c r="AD35" s="115"/>
-      <c r="AE35" s="132"/>
-      <c r="AF35" s="132"/>
-      <c r="AG35" s="136"/>
-      <c r="AH35" s="136"/>
-      <c r="AI35" s="137"/>
-      <c r="AJ35" s="45"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="118"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="122"/>
+      <c r="X35" s="122"/>
+      <c r="Y35" s="122"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
+      <c r="AC35" s="122"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="97"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="44"/>
     </row>
     <row r="36" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Rafi</v>
-      </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="81">
+        <v>-</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="69">
         <f>IF(B14&gt;0,(B36-(M24*B14)-K43-C36),0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="70">
         <f>IF(D14&gt;0,(B36-(V24*D14)-K43-C36),0)</f>
         <v>0</v>
       </c>
@@ -4064,49 +4097,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="115"/>
-      <c r="W36" s="115"/>
-      <c r="X36" s="115"/>
-      <c r="Y36" s="115"/>
-      <c r="Z36" s="115"/>
-      <c r="AA36" s="115"/>
-      <c r="AB36" s="115"/>
-      <c r="AC36" s="115"/>
-      <c r="AD36" s="115"/>
-      <c r="AE36" s="132"/>
-      <c r="AF36" s="132"/>
-      <c r="AG36" s="136"/>
-      <c r="AH36" s="136"/>
-      <c r="AI36" s="137"/>
-      <c r="AJ36" s="45"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="118"/>
+      <c r="U36" s="118"/>
+      <c r="V36" s="122"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="122"/>
+      <c r="Y36" s="122"/>
+      <c r="Z36" s="122"/>
+      <c r="AA36" s="122"/>
+      <c r="AB36" s="122"/>
+      <c r="AC36" s="122"/>
+      <c r="AD36" s="122"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="97"/>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="44"/>
     </row>
     <row r="37" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="78">
+      <c r="B37" s="65"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="66">
         <f>IF(B15&gt;0,(B37-(M24*B15)-K43-C37),0)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="67">
         <f>IF(D15&gt;0,(B37-(V24*D15)-K43-C37),0)</f>
         <v>0</v>
       </c>
@@ -4114,49 +4147,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="115"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="115"/>
-      <c r="Y37" s="115"/>
-      <c r="Z37" s="115"/>
-      <c r="AA37" s="115"/>
-      <c r="AB37" s="115"/>
-      <c r="AC37" s="115"/>
-      <c r="AD37" s="115"/>
-      <c r="AE37" s="132"/>
-      <c r="AF37" s="132"/>
-      <c r="AG37" s="136"/>
-      <c r="AH37" s="136"/>
-      <c r="AI37" s="137"/>
-      <c r="AJ37" s="45"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
+      <c r="U37" s="118"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
+      <c r="X37" s="122"/>
+      <c r="Y37" s="122"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="122"/>
+      <c r="AB37" s="122"/>
+      <c r="AC37" s="122"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="97"/>
+      <c r="AH37" s="97"/>
+      <c r="AI37" s="98"/>
+      <c r="AJ37" s="44"/>
     </row>
     <row r="38" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="81">
+      <c r="B38" s="68"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="69">
         <f>IF(B16&gt;0,(B38-(M24*B16)-K43-C38),0)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="70">
         <f>IF(D16&gt;0,(B38-(V24*D16)-K43-C38),0)</f>
         <v>0</v>
       </c>
@@ -4164,49 +4197,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="115"/>
-      <c r="W38" s="115"/>
-      <c r="X38" s="115"/>
-      <c r="Y38" s="115"/>
-      <c r="Z38" s="115"/>
-      <c r="AA38" s="115"/>
-      <c r="AB38" s="115"/>
-      <c r="AC38" s="115"/>
-      <c r="AD38" s="115"/>
-      <c r="AE38" s="132"/>
-      <c r="AF38" s="132"/>
-      <c r="AG38" s="136"/>
-      <c r="AH38" s="136"/>
-      <c r="AI38" s="137"/>
-      <c r="AJ38" s="45"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="141"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
+      <c r="U38" s="118"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="122"/>
+      <c r="Y38" s="122"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="122"/>
+      <c r="AC38" s="122"/>
+      <c r="AD38" s="122"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="98"/>
+      <c r="AJ38" s="44"/>
     </row>
     <row r="39" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>A17</f>
         <v>-</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="78">
+      <c r="B39" s="65"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="66">
         <f>IF(B17&gt;0,(B39-(M24*B17)-K43-C39),0)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="67">
         <f>IF(D17&gt;0,(B39-(V24*D17)-K43-C39),0)</f>
         <v>0</v>
       </c>
@@ -4214,49 +4247,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="154"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="115"/>
-      <c r="W39" s="115"/>
-      <c r="X39" s="115"/>
-      <c r="Y39" s="115"/>
-      <c r="Z39" s="115"/>
-      <c r="AA39" s="115"/>
-      <c r="AB39" s="115"/>
-      <c r="AC39" s="115"/>
-      <c r="AD39" s="115"/>
-      <c r="AE39" s="132"/>
-      <c r="AF39" s="132"/>
-      <c r="AG39" s="136"/>
-      <c r="AH39" s="136"/>
-      <c r="AI39" s="137"/>
-      <c r="AJ39" s="45"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="141"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="118"/>
+      <c r="U39" s="118"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="122"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="122"/>
+      <c r="AC39" s="122"/>
+      <c r="AD39" s="122"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="93"/>
+      <c r="AG39" s="97"/>
+      <c r="AH39" s="97"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="44"/>
     </row>
     <row r="40" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="84">
+      <c r="B40" s="71"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="72">
         <f>IF(B18&gt;0,(B40-(M24*B18)-K43-C40),0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="85">
+      <c r="E40" s="73">
         <f>IF(D18&gt;0,(B40-(V24*D18)-K43-C40),0)</f>
         <v>0</v>
       </c>
@@ -4264,49 +4297,49 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="116"/>
-      <c r="AE40" s="133"/>
-      <c r="AF40" s="133"/>
-      <c r="AG40" s="138"/>
-      <c r="AH40" s="138"/>
-      <c r="AI40" s="139"/>
-      <c r="AJ40" s="45"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="123"/>
+      <c r="W40" s="123"/>
+      <c r="X40" s="123"/>
+      <c r="Y40" s="123"/>
+      <c r="Z40" s="123"/>
+      <c r="AA40" s="123"/>
+      <c r="AB40" s="123"/>
+      <c r="AC40" s="123"/>
+      <c r="AD40" s="123"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="94"/>
+      <c r="AG40" s="99"/>
+      <c r="AH40" s="99"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="44"/>
     </row>
     <row r="41" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="87">
+      <c r="B41" s="74"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="75">
         <f>IF(B19&gt;0,(B41-(M24*B19)-K43-C41),0)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="76">
         <f>IF(D19&gt;0,(B41-(V24*D19)-K43-C41),0)</f>
         <v>0</v>
       </c>
@@ -4314,58 +4347,60 @@
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G41" s="97" t="s">
+      <c r="G41" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="122" t="s">
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="123"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="128" t="s">
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="128"/>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="128"/>
-      <c r="Z41" s="128"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="140" t="s">
+      <c r="W41" s="89"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
+      <c r="Z41" s="89"/>
+      <c r="AA41" s="89"/>
+      <c r="AB41" s="89"/>
+      <c r="AC41" s="89"/>
+      <c r="AD41" s="89"/>
+      <c r="AE41" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AF41" s="140"/>
-      <c r="AG41" s="140"/>
-      <c r="AH41" s="140"/>
-      <c r="AI41" s="142"/>
-      <c r="AJ41" s="45"/>
+      <c r="AF41" s="101"/>
+      <c r="AG41" s="101"/>
+      <c r="AH41" s="101"/>
+      <c r="AI41" s="103">
+        <v>50</v>
+      </c>
+      <c r="AJ41" s="44"/>
     </row>
     <row r="42" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="22">
         <f>SUM(B25:B41)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="24">
         <f>SUM(C25:C41)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="23">
         <f>SUM(D25:D41)</f>
         <v>0</v>
       </c>
@@ -4374,584 +4409,697 @@
         <v>0</v>
       </c>
       <c r="F42" s="6">
-        <f>IF(B20&gt;0,COUNTIF(F25:F41, "Paid")*K43+300,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="125"/>
-      <c r="S42" s="125"/>
-      <c r="T42" s="125"/>
-      <c r="U42" s="125"/>
-      <c r="V42" s="129"/>
-      <c r="W42" s="129"/>
-      <c r="X42" s="129"/>
-      <c r="Y42" s="129"/>
-      <c r="Z42" s="129"/>
-      <c r="AA42" s="129"/>
-      <c r="AB42" s="129"/>
-      <c r="AC42" s="129"/>
-      <c r="AD42" s="129"/>
-      <c r="AE42" s="141"/>
-      <c r="AF42" s="141"/>
-      <c r="AG42" s="141"/>
-      <c r="AH42" s="141"/>
-      <c r="AI42" s="143"/>
-      <c r="AJ42" s="45"/>
+        <f>IF(B20&gt;0,COUNTIF(F25:F41, "Paid")*K43+K45,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
+      <c r="AD42" s="90"/>
+      <c r="AE42" s="102"/>
+      <c r="AF42" s="102"/>
+      <c r="AG42" s="102"/>
+      <c r="AH42" s="102"/>
+      <c r="AI42" s="104"/>
+      <c r="AJ42" s="44"/>
     </row>
     <row r="43" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="101" t="s">
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="125"/>
-      <c r="S43" s="125"/>
-      <c r="T43" s="125"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
-      <c r="Y43" s="129"/>
-      <c r="Z43" s="129"/>
-      <c r="AA43" s="129"/>
-      <c r="AB43" s="129"/>
-      <c r="AC43" s="129"/>
-      <c r="AD43" s="129"/>
-      <c r="AE43" s="117" t="s">
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="167">
+        <v>500</v>
+      </c>
+      <c r="L43" s="168"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="AF43" s="117"/>
-      <c r="AG43" s="117"/>
-      <c r="AH43" s="117"/>
-      <c r="AI43" s="117"/>
-      <c r="AJ43" s="45"/>
+      <c r="AF43" s="124"/>
+      <c r="AG43" s="124"/>
+      <c r="AH43" s="124"/>
+      <c r="AI43" s="124"/>
+      <c r="AJ43" s="44"/>
     </row>
     <row r="44" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="149"/>
-      <c r="M44" s="126"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="127"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="127"/>
-      <c r="U44" s="127"/>
-      <c r="V44" s="130"/>
-      <c r="W44" s="130"/>
-      <c r="X44" s="130"/>
-      <c r="Y44" s="130"/>
-      <c r="Z44" s="130"/>
-      <c r="AA44" s="130"/>
-      <c r="AB44" s="130"/>
-      <c r="AC44" s="130"/>
-      <c r="AD44" s="130"/>
-      <c r="AE44" s="118"/>
-      <c r="AF44" s="118"/>
-      <c r="AG44" s="118"/>
-      <c r="AH44" s="118"/>
-      <c r="AI44" s="118"/>
-      <c r="AJ44" s="45"/>
-    </row>
-    <row r="45" spans="1:36" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="104"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="103"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="107" t="s">
+      <c r="A44" s="130"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="149"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="170"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="90"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="90"/>
+      <c r="AA44" s="90"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="90"/>
+      <c r="AD44" s="90"/>
+      <c r="AE44" s="152"/>
+      <c r="AF44" s="152"/>
+      <c r="AG44" s="152"/>
+      <c r="AH44" s="152"/>
+      <c r="AI44" s="152"/>
+      <c r="AJ44" s="44"/>
+    </row>
+    <row r="45" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="130"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="150">
+        <v>300</v>
+      </c>
+      <c r="L45" s="151"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="90"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="90"/>
+      <c r="AE45" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="AF45" s="107"/>
-      <c r="AG45" s="107"/>
-      <c r="AH45" s="107"/>
-      <c r="AI45" s="107"/>
-      <c r="AJ45" s="45"/>
+      <c r="AF45" s="155"/>
+      <c r="AG45" s="155"/>
+      <c r="AH45" s="155"/>
+      <c r="AI45" s="155"/>
+      <c r="AJ45" s="44"/>
     </row>
     <row r="46" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="121"/>
-      <c r="N46" s="121"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="121"/>
-      <c r="S46" s="121"/>
-      <c r="T46" s="121"/>
-      <c r="U46" s="121"/>
-      <c r="V46" s="121"/>
-      <c r="W46" s="121"/>
-      <c r="X46" s="121"/>
-      <c r="Y46" s="121"/>
-      <c r="Z46" s="121"/>
-      <c r="AA46" s="121"/>
-      <c r="AB46" s="121"/>
-      <c r="AC46" s="121"/>
-      <c r="AD46" s="121"/>
-      <c r="AE46" s="121"/>
-      <c r="AF46" s="121"/>
-      <c r="AG46" s="121"/>
-      <c r="AH46" s="121"/>
-      <c r="AI46" s="121"/>
-      <c r="AJ46" s="121"/>
-    </row>
-    <row r="47" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="121"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="121"/>
-      <c r="R47" s="121"/>
-      <c r="S47" s="121"/>
-      <c r="T47" s="121"/>
-      <c r="U47" s="121"/>
-      <c r="V47" s="121"/>
-      <c r="W47" s="121"/>
-      <c r="X47" s="121"/>
-      <c r="Y47" s="121"/>
-      <c r="Z47" s="121"/>
-      <c r="AA47" s="121"/>
-      <c r="AB47" s="121"/>
-      <c r="AC47" s="121"/>
-      <c r="AD47" s="121"/>
-      <c r="AE47" s="121"/>
-      <c r="AF47" s="121"/>
-      <c r="AG47" s="121"/>
-      <c r="AH47" s="121"/>
-      <c r="AI47" s="121"/>
-      <c r="AJ47" s="121"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="91"/>
+      <c r="AA46" s="91"/>
+      <c r="AB46" s="91"/>
+      <c r="AC46" s="91"/>
+      <c r="AD46" s="91"/>
+      <c r="AE46" s="155"/>
+      <c r="AF46" s="155"/>
+      <c r="AG46" s="155"/>
+      <c r="AH46" s="155"/>
+      <c r="AI46" s="155"/>
+      <c r="AJ46" s="44"/>
+    </row>
+    <row r="47" spans="1:36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="130"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="107"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="107"/>
+      <c r="X47" s="107"/>
+      <c r="Y47" s="107"/>
+      <c r="Z47" s="107"/>
+      <c r="AA47" s="107"/>
+      <c r="AB47" s="107"/>
+      <c r="AC47" s="107"/>
+      <c r="AD47" s="107"/>
+      <c r="AE47" s="155"/>
+      <c r="AF47" s="155"/>
+      <c r="AG47" s="155"/>
+      <c r="AH47" s="155"/>
+      <c r="AI47" s="155"/>
+      <c r="AJ47" s="44"/>
     </row>
     <row r="48" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="121"/>
-      <c r="S48" s="121"/>
-      <c r="T48" s="121"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="121"/>
-      <c r="W48" s="121"/>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="121"/>
-      <c r="Z48" s="121"/>
-      <c r="AA48" s="121"/>
-      <c r="AB48" s="121"/>
-      <c r="AC48" s="121"/>
-      <c r="AD48" s="121"/>
-      <c r="AE48" s="121"/>
-      <c r="AF48" s="121"/>
-      <c r="AG48" s="121"/>
-      <c r="AH48" s="121"/>
-      <c r="AI48" s="121"/>
-      <c r="AJ48" s="121"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="121"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121"/>
-      <c r="R49" s="121"/>
-      <c r="S49" s="121"/>
-      <c r="T49" s="121"/>
-      <c r="U49" s="121"/>
-      <c r="V49" s="121"/>
-      <c r="W49" s="121"/>
-      <c r="X49" s="121"/>
-      <c r="Y49" s="121"/>
-      <c r="Z49" s="121"/>
-      <c r="AA49" s="121"/>
-      <c r="AB49" s="121"/>
-      <c r="AC49" s="121"/>
-      <c r="AD49" s="121"/>
-      <c r="AE49" s="121"/>
-      <c r="AF49" s="121"/>
-      <c r="AG49" s="121"/>
-      <c r="AH49" s="121"/>
-      <c r="AI49" s="121"/>
-      <c r="AJ49" s="121"/>
-    </row>
-    <row r="52" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="92" t="s">
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="82"/>
+      <c r="AD48" s="82"/>
+      <c r="AE48" s="82"/>
+      <c r="AF48" s="82"/>
+      <c r="AG48" s="82"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="82"/>
+      <c r="AJ48" s="82"/>
+    </row>
+    <row r="49" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="82"/>
+      <c r="AE49" s="82"/>
+      <c r="AF49" s="82"/>
+      <c r="AG49" s="82"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="82"/>
+      <c r="AJ49" s="82"/>
+    </row>
+    <row r="50" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="82"/>
+      <c r="AD50" s="82"/>
+      <c r="AE50" s="82"/>
+      <c r="AF50" s="82"/>
+      <c r="AG50" s="82"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="82"/>
+      <c r="AJ50" s="82"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="82"/>
+      <c r="AC51" s="82"/>
+      <c r="AD51" s="82"/>
+      <c r="AE51" s="82"/>
+      <c r="AF51" s="82"/>
+      <c r="AG51" s="82"/>
+      <c r="AH51" s="82"/>
+      <c r="AI51" s="82"/>
+      <c r="AJ51" s="82"/>
+    </row>
+    <row r="54" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="156"/>
+      <c r="B54" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="U52" s="1" t="s">
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="U54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="93"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-    </row>
     <row r="55" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="H55" s="30"/>
+      <c r="A55" s="156"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="95">
-        <f>IF(B20&gt;0,(B42-B22+300),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="95"/>
-      <c r="D56" s="94">
-        <f>IF(B20&gt;0,F42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="94"/>
-      <c r="H56" s="30"/>
+      <c r="A56" s="156"/>
+      <c r="B56" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="137"/>
+      <c r="D56" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="134"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="26"/>
-      <c r="H57" s="30"/>
+      <c r="A57" s="156"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="26"/>
-      <c r="H58" s="30"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="136">
+        <f>IF(B20&gt;0,(B42-B22+300),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="136"/>
+      <c r="D58" s="135">
+        <f>IF(B20&gt;0,F42,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="135"/>
+      <c r="H58" s="29"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="H59" s="30"/>
+      <c r="A59" s="156"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="25"/>
+      <c r="H59" s="29"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="44">
-        <v>3</v>
-      </c>
-      <c r="H60" s="30"/>
+    <row r="60" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="156"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="25"/>
+      <c r="H60" s="29"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+    <row r="61" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="157"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="43">
+        <v>6</v>
+      </c>
+      <c r="H62" s="29"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" s="157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="43">
+        <v>7</v>
+      </c>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" s="157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="43">
+        <v>1</v>
+      </c>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="43">
+        <v>2</v>
+      </c>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="43">
+        <v>3</v>
+      </c>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B67" s="43">
         <v>4</v>
       </c>
-      <c r="H61" s="30"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="44">
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="43">
         <v>5</v>
       </c>
-      <c r="H62" s="30"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="44">
-        <v>6</v>
-      </c>
-      <c r="H63" s="30"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="44">
-        <v>7</v>
-      </c>
-      <c r="H64" s="30"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="44">
-        <v>1</v>
-      </c>
-      <c r="H65" s="30"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="44">
-        <v>2</v>
-      </c>
-      <c r="H66" s="30"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H67" s="30"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H68" s="30"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H69" s="30"/>
+      <c r="A69" s="156"/>
+      <c r="H69" s="29"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H70" s="30"/>
+      <c r="A70" s="156"/>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H71" s="30"/>
+      <c r="A71" s="156"/>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="156"/>
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="156"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="156"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="156"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mecl76Xh8ons7YE7XBOe369Bk7t0DNYPqd8KRNIomZwtcvcc6kdVV01FJesHDa2gc5mjhv7FDwZ3M9un+w4KlA==" saltValue="XHx48qa+6z9SAdF5kBuYFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="32">
+  <sheetProtection algorithmName="SHA-512" hashValue="iqCGwjZFdHicT/Y1RTrYvFJZGKxfhD4rCjkeHe1L/Dityf4OEOOszYGqn3nJl0wopkJA179i5fQqK2YSMW9DBQ==" saltValue="x4pliQ+P+MG84yR61UkGkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="34">
+    <mergeCell ref="B54:E55"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="D58:E61"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="G41:L42"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="A43:F47"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="M47:U47"/>
+    <mergeCell ref="V47:AD47"/>
+    <mergeCell ref="M24:U40"/>
+    <mergeCell ref="V24:AD40"/>
+    <mergeCell ref="AE43:AI44"/>
+    <mergeCell ref="AE45:AI47"/>
     <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A46:AJ49"/>
-    <mergeCell ref="M41:U44"/>
-    <mergeCell ref="V41:AD44"/>
+    <mergeCell ref="A48:AJ51"/>
+    <mergeCell ref="M41:U46"/>
+    <mergeCell ref="V41:AD46"/>
     <mergeCell ref="AE24:AF40"/>
     <mergeCell ref="AG24:AI40"/>
     <mergeCell ref="AE41:AH42"/>
     <mergeCell ref="AI41:AI42"/>
     <mergeCell ref="A21:AI21"/>
     <mergeCell ref="A23:AI23"/>
-    <mergeCell ref="K43:L44"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G24:L40"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="AE45:AI45"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="V45:AD45"/>
-    <mergeCell ref="M24:U40"/>
-    <mergeCell ref="V24:AD40"/>
-    <mergeCell ref="AE43:AI44"/>
-    <mergeCell ref="G41:L42"/>
-    <mergeCell ref="G43:J44"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="A43:F45"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="D56:E59"/>
-    <mergeCell ref="B56:C59"/>
-    <mergeCell ref="B54:C55"/>
   </mergeCells>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThan">
       <formula>$D$25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
       <formula>$D$25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
-      <formula>$AI$41</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C25:C41">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D19">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
-      <formula>$AI$41</formula>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+      <formula>AND(D3&gt;0,D3&lt;AI41)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThanOrEqual">
       <formula>"AI41"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D41">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E41">
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E41">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:AI18">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>E3&gt;2.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>E3=2.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>E3=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>E3=0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:AI19">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>E3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>E3=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H71">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H57:H73">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="greaterThanOrEqual">
+      <formula>"AI41"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:L40">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$G$24&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B19">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(B3&gt;0,B3&lt;50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D19">
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
+      <formula>AND(D6&gt;0,D6&lt;AI46)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="greaterThanOrEqual">
       <formula>"AI41"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MESS_Management.xlsx
+++ b/MESS_Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MealExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9CA91-37EF-4B79-8A4C-2B1DBB057FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA28A35C-CD2E-46E5-823F-194EC41206C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="858" xr2:uid="{509D6E15-11FD-47BB-9E7C-F8775653EE68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>TOTAL MEAL</t>
   </si>
@@ -157,20 +157,27 @@
     <t>KHALA BILL</t>
   </si>
   <si>
-    <t>Any Problem ? CONTACT  :  https://t.me/mdbappy21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frize Bill :        </t>
   </si>
   <si>
     <t>Version:2.4</t>
+  </si>
+  <si>
+    <t>Any Problem feel free to  contact  :  
+https://t.me/mdbappy21             https://wa.link/c79zkw</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>THRUSDAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +391,13 @@
       <i/>
       <sz val="24"/>
       <color theme="0"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
       <name val="Algerian"/>
       <family val="5"/>
     </font>
@@ -1062,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,18 +1174,12 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,9 +1190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,10 +1259,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1326,154 +1327,69 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1485,113 +1401,11 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1601,19 +1415,245 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -1629,23 +1669,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1754,9 +1793,196 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007E39"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF351BF9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE76719"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2105,10 +2331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D573F9-168D-42E9-86CE-FBB75548956D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="AI41" sqref="AI41:AI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2150,154 +2376,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="111" t="s">
+      <c r="B1" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="150" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="14" t="str">
         <f>TEXT(B65,"dddd")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="F1" s="11" t="str">
         <f>TEXT(B66,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="G1" s="11" t="str">
         <f>TEXT(B67,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="H1" s="11" t="str">
         <f>TEXT(B68,"dddd")</f>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="I1" s="11" t="str">
         <f>TEXT(B62,"dddd")</f>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="J1" s="11" t="str">
         <f>TEXT(B63,"dddd")</f>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="K1" s="11" t="str">
         <f>TEXT(B64,"dddd")</f>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="L1" s="11" t="str">
         <f>TEXT(B65,"dddd")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="M1" s="11" t="str">
         <f>TEXT(B66,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="N1" s="11" t="str">
         <f>TEXT(B67,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="O1" s="11" t="str">
         <f>TEXT(B68,"dddd")</f>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="P1" s="11" t="str">
         <f>TEXT(B62,"dddd")</f>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="Q1" s="11" t="str">
         <f>TEXT(B63,"dddd")</f>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="R1" s="11" t="str">
         <f>TEXT(B64,"dddd")</f>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="S1" s="11" t="str">
         <f>TEXT(B65,"dddd")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="T1" s="11" t="str">
         <f>TEXT(B66,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="U1" s="11" t="str">
         <f>TEXT(B67,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="V1" s="11" t="str">
         <f>TEXT(B68,"dddd")</f>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="W1" s="11" t="str">
         <f>TEXT(B62,"dddd")</f>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="X1" s="11" t="str">
         <f>TEXT(B63,"dddd")</f>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="Y1" s="11" t="str">
         <f>TEXT(B64,"dddd")</f>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="Z1" s="11" t="str">
         <f>TEXT(B65,"dddd")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="AA1" s="11" t="str">
         <f>TEXT(B66,"dddd")</f>
-        <v>Tuesday</v>
+        <v>Thursday</v>
       </c>
       <c r="AB1" s="11" t="str">
         <f>TEXT(B67,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Friday</v>
       </c>
       <c r="AC1" s="11" t="str">
         <f>TEXT(B68,"dddd")</f>
-        <v>Thursday</v>
+        <v>Saturday</v>
       </c>
       <c r="AD1" s="11" t="str">
         <f>TEXT(B62,"dddd")</f>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="AE1" s="11" t="str">
         <f>TEXT(B63,"dddd")</f>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="AF1" s="12" t="str">
         <f>TEXT(B64,"dddd")</f>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="AG1" s="20" t="str">
         <f>TEXT(B65,"dddd")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="AH1" s="20" t="str">
         <f>TEXT(B66,"dddd")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="AI1" s="159" t="str">
+        <v>Thursday</v>
+      </c>
+      <c r="AI1" s="20" t="str">
         <f>TEXT(B67,"dddd")</f>
-        <v>Wednesday</v>
-      </c>
-      <c r="AJ1" s="80" t="s">
-        <v>34</v>
+        <v>Friday</v>
+      </c>
+      <c r="AJ1" s="122" t="s">
+        <v>33</v>
       </c>
       <c r="AK1"/>
       <c r="AL1"/>
       <c r="AM1"/>
     </row>
     <row r="2" spans="1:41" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="15">
         <v>1</v>
       </c>
@@ -2391,7 +2617,7 @@
       <c r="AI2" s="160">
         <v>31</v>
       </c>
-      <c r="AJ2" s="81"/>
+      <c r="AJ2" s="123"/>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
@@ -2399,50 +2625,50 @@
       <c r="AO2" s="2"/>
     </row>
     <row r="3" spans="1:41" ht="22.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="30">
         <f t="shared" ref="B3:B19" si="0">SUM(E3:AI3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="161"/>
       <c r="D3" s="31">
         <f>IF(AND(B3&lt;AI41, B3&gt;0),AI41,B3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="45"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="42"/>
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
@@ -2450,50 +2676,50 @@
       <c r="AO3" s="2"/>
     </row>
     <row r="4" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34">
+      <c r="C4" s="162"/>
+      <c r="D4" s="33">
         <f>IF(AND(B4&lt;AI41, B4&gt;0),AI41,B4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="164"/>
-      <c r="AJ4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="172"/>
+      <c r="AJ4" s="42"/>
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
@@ -2501,700 +2727,702 @@
       <c r="AO4" s="2"/>
     </row>
     <row r="5" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37">
+      <c r="C5" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="35">
         <f>IF(AND(B5&lt;AI41, B5&gt;0),AI41,B5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="45"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="174"/>
+      <c r="AJ5" s="42"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34">
+      <c r="C6" s="162"/>
+      <c r="D6" s="33">
         <f>IF(AND(B6&lt;AI41, B6&gt;0),AI41,B6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="164"/>
-      <c r="AJ6" s="45"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="172"/>
+      <c r="AJ6" s="42"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
     </row>
     <row r="7" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37">
+      <c r="C7" s="163"/>
+      <c r="D7" s="35">
         <f>IF(AND(B7&lt;AI41, B7&gt;0),AI41,B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="164"/>
-      <c r="AJ7" s="45"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="42"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
     </row>
     <row r="8" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34">
+      <c r="C8" s="162"/>
+      <c r="D8" s="33">
         <f>IF(AND(B8&lt;AI41, B8&gt;0),AI41,B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="45"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="42"/>
     </row>
     <row r="9" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37">
+      <c r="C9" s="163"/>
+      <c r="D9" s="35">
         <f>IF(AND(B9&lt;AI41, B9&gt;0),AI41,B9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="164"/>
-      <c r="AJ9" s="45"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="42"/>
     </row>
     <row r="10" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="81" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34">
+      <c r="C10" s="162"/>
+      <c r="D10" s="33">
         <f>IF(AND(B10&lt;AI41, B10&gt;0),AI41,B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="45"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="172"/>
+      <c r="AJ10" s="42"/>
     </row>
     <row r="11" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37">
+      <c r="C11" s="163"/>
+      <c r="D11" s="35">
         <f>IF(AND(B11&lt;AI41, B11&gt;0),AI41,B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="45"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="42"/>
     </row>
     <row r="12" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="38">
+      <c r="C12" s="162"/>
+      <c r="D12" s="36">
         <f>IF(AND(B12&lt;AI41, B12&gt;0),AI41,B12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="166"/>
-      <c r="AJ12" s="45"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="42"/>
     </row>
     <row r="13" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="39">
+      <c r="B13" s="34">
+        <f>SUM(E13:AI13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="163"/>
+      <c r="D13" s="37">
         <f>IF(AND(B13&lt;AI41, B13&gt;0),AI41,B13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="45"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="42"/>
     </row>
     <row r="14" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="38">
+      <c r="C14" s="162"/>
+      <c r="D14" s="36">
         <f>IF(AND(B14&lt;AI41, B14&gt;0),AI41,B14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="166"/>
-      <c r="AJ14" s="45"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="173"/>
+      <c r="AJ14" s="42"/>
     </row>
     <row r="15" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39">
+      <c r="C15" s="163"/>
+      <c r="D15" s="37">
         <f>IF(AND(B15&lt;AI41, B15&gt;0),AI41,B15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="166"/>
-      <c r="AJ15" s="45"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="42"/>
     </row>
     <row r="16" spans="1:41" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="38">
+      <c r="C16" s="162"/>
+      <c r="D16" s="36">
         <f>IF(AND(B16&lt;AI41, B16&gt;0),AI41,B16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="166"/>
-      <c r="AJ16" s="45"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="42"/>
     </row>
     <row r="17" spans="1:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="39">
+      <c r="C17" s="164"/>
+      <c r="D17" s="37">
         <f>IF(AND(B17&lt;AI41, B17&gt;0),AI41,B17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="166"/>
-      <c r="AJ17" s="45"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="42"/>
     </row>
     <row r="18" spans="1:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="38">
+      <c r="C18" s="165"/>
+      <c r="D18" s="36">
         <f>IF(AND(B18&lt;AI41, B18&gt;0),AI41,B18)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="166"/>
-      <c r="AJ18" s="45"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="53"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="60" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="39">
+      <c r="C19" s="161"/>
+      <c r="D19" s="37">
         <f>IF(AND(B19&lt;AI41, B19&gt;0),AI41,B19)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="166"/>
-      <c r="AJ19" s="45"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -3205,11 +3433,11 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:AF20" si="1">SUM(C3:C19)</f>
+        <f>SUM(C3:C19)</f>
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D20:AF20" si="1">SUM(D3:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" s="27">
@@ -3332,194 +3560,196 @@
         <f>SUM(AH3:AH19)</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="161">
+      <c r="AI20" s="28">
         <f>SUM(AI3:AI19)</f>
         <v>0</v>
       </c>
-      <c r="AJ20" s="46"/>
+      <c r="AJ20" s="43"/>
     </row>
     <row r="21" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="106"/>
-      <c r="AJ21" s="44"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="148"/>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="148"/>
+      <c r="AI21" s="148"/>
+      <c r="AJ21" s="41"/>
     </row>
     <row r="22" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="112">
+      <c r="B22" s="157">
         <f>IF(B20&gt;0,SUM(E22:AI22)+K45-C42,0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="162"/>
-      <c r="AJ22" s="44"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="170"/>
+      <c r="AI22" s="171"/>
+      <c r="AJ22" s="41"/>
     </row>
     <row r="23" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="44"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="148"/>
+      <c r="AG23" s="148"/>
+      <c r="AH23" s="148"/>
+      <c r="AI23" s="148"/>
+      <c r="AJ23" s="41"/>
     </row>
     <row r="24" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="147" t="s">
+      <c r="D24" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="148" t="s">
+      <c r="E24" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="148" t="s">
+      <c r="F24" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="138">
+      <c r="G24" s="151">
         <f>IF(B20&gt;0,(B42-B22)-F42+300,IF((B42&gt;0),(B42-B22)-(F42),0))</f>
         <v>0</v>
       </c>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="115">
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="111">
         <f>IF(B20&gt;0,B22/B20,0)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="121">
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="117">
         <f>IF(D20&gt;0,B22/D20,0)</f>
         <v>0</v>
       </c>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="92">
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="134">
         <f ca="1">IF(_xlfn.DAYS(AK25,TODAY())&lt;0,0,_xlfn.DAYS(AK25,TODAY()))</f>
-        <v>29</v>
-      </c>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="44"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="138"/>
+      <c r="AJ24" s="41"/>
       <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3527,52 +3757,52 @@
         <f t="shared" ref="A25:A41" si="2">A3</f>
         <v>-</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="66">
-        <f>IF(B3&gt;0,(B25-(M24*B3)-C25-K43),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="67">
-        <f>IF(D3&gt;0,(B25-(V24*D3)-K43-C25),0)</f>
+      <c r="B25" s="61"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="62">
+        <f>FLOOR(IF(B3&gt;0,(B25-(M24*B3)-C25-K43),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="63">
+        <f>FLOOR(IF(D3&gt;0,(B25-(V24*D3)-K43-C25),0),1)</f>
         <v>0</v>
       </c>
       <c r="F25" s="7" t="str">
         <f t="shared" ref="F25:F41" si="3">IF(B3=0,"MEAL OFF",IF(B25&gt;0,"Paid","Not given"))</f>
         <v>MEAL OFF</v>
       </c>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="44"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="135"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="139"/>
+      <c r="AI25" s="140"/>
+      <c r="AJ25" s="41"/>
       <c r="AK25" s="26">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="AL25" s="1" t="s">
         <v>7</v>
@@ -3583,810 +3813,810 @@
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="69">
-        <f>IF(B4&gt;0,(B26-(M24*B4)-K43-C26),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="70">
-        <f>IF(D4&gt;0,(B26-(V24*D4)-K43-C26),0)</f>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="65">
+        <f>FLOOR(IF(B4&gt;0,(B26-(M24*B4)-K43-C26),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="66">
+        <f>FLOOR(IF(D4&gt;0,(B26-(V24*D4)-K43-C26),0),1)</f>
         <v>0</v>
       </c>
       <c r="F26" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="97"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="44"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="135"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="140"/>
+      <c r="AJ26" s="41"/>
     </row>
     <row r="27" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="66">
-        <f>IF(B5&gt;0,(B27-(M24*B5)-K43-C27),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="67">
-        <f>IF(D5&gt;0,(B27-(V24*D5)-K43-C27),0)</f>
+      <c r="B27" s="61"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="62">
+        <f>FLOOR(IF(B5&gt;0,(B27-(M24*B5)-K43-C27),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="63">
+        <f>FLOOR(IF(D5&gt;0,(B27-(V24*D5)-K43-C27),0),1)</f>
         <v>0</v>
       </c>
       <c r="F27" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="97"/>
-      <c r="AH27" s="97"/>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="44"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="135"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="139"/>
+      <c r="AH27" s="139"/>
+      <c r="AI27" s="140"/>
+      <c r="AJ27" s="41"/>
     </row>
     <row r="28" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="69">
-        <f>IF(B6&gt;0,(B28-(M24*B6)-K43-C28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="70">
-        <f>IF(D6&gt;0,(B28-(V24*D6)-K43-C28),0)</f>
+      <c r="B28" s="64"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="65">
+        <f>FLOOR(IF(B6&gt;0,(B28-(M24*B6)-K43-C28),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="66">
+        <f>FLOOR(IF(D6&gt;0,(B28-(V24*D6)-K43-C28),0),1)</f>
         <v>0</v>
       </c>
       <c r="F28" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="122"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="97"/>
-      <c r="AH28" s="97"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="44"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="135"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="41"/>
     </row>
     <row r="29" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="66">
-        <f>IF(B7&gt;0,(B29-(M24*B7)-K43-C29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="67">
-        <f>IF(D7&gt;0,(B29-(V24*D7)-K43-C29),0)</f>
+      <c r="B29" s="61"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="62">
+        <f>FLOOR(IF(B7&gt;0,(B29-(M24*B7)-K43-C29),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="63">
+        <f>FLOOR(IF(D7&gt;0,(B29-(V24*D7)-K43-C29),0),1)</f>
         <v>0</v>
       </c>
       <c r="F29" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="97"/>
-      <c r="AH29" s="97"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="44"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="135"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="139"/>
+      <c r="AH29" s="139"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="41"/>
     </row>
     <row r="30" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="69">
-        <f>IF(B8&gt;0,(B30-(M24*B8)-K43-C30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="70">
-        <f>IF(D8&gt;0,(B30-(V24*D8)-K43-C30),0)</f>
+      <c r="B30" s="64"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="65">
+        <f>FLOOR(IF(B8&gt;0,(B30-(M24*B8)-K43-C30),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="66">
+        <f>FLOOR(IF(D8&gt;0,(B30-(V24*D8)-K43-C30),0),1)</f>
         <v>0</v>
       </c>
       <c r="F30" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="97"/>
-      <c r="AH30" s="97"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="44"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="135"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="139"/>
+      <c r="AH30" s="139"/>
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="41"/>
     </row>
     <row r="31" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="66">
-        <f>IF(B9&gt;0,(B31-(M24*B9)-K43-C31),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="67">
-        <f>IF(D9&gt;0,(B31-(V24*D9)-K43-C31),0)</f>
+      <c r="B31" s="61"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="62">
+        <f>FLOOR(IF(B9&gt;0,(B31-(M24*B9)-K43-C31),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="63">
+        <f>FLOOR(IF(D9&gt;0,(B31-(V24*D9)-K43-C31),0),1)</f>
         <v>0</v>
       </c>
       <c r="F31" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="97"/>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="44"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="118"/>
+      <c r="AE31" s="135"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="139"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="41"/>
     </row>
     <row r="32" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="69">
-        <f>IF(B10&gt;0,(B32-(M24*B10)-K43-C32),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="70">
-        <f>IF(D10&gt;0,(B32-(V24*D10)-K43-C32),0)</f>
+      <c r="B32" s="64"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="65">
+        <f>FLOOR(IF(B10&gt;0,(B32-(M24*B10)-K43-C32),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="66">
+        <f>FLOOR(IF(D10&gt;0,(B32-(V24*D10)-K43-C32),0),1)</f>
         <v>0</v>
       </c>
       <c r="F32" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="93"/>
-      <c r="AG32" s="97"/>
-      <c r="AH32" s="97"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="44"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="135"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="41"/>
     </row>
     <row r="33" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="66">
-        <f>IF(B11&gt;0,(B33-(M24*B11)-K43-C33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="67">
-        <f>IF(D11&gt;0,(B33-(V24*D11)-K43-C33),0)</f>
+      <c r="B33" s="61"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="62">
+        <f>FLOOR(IF(B11&gt;0,(B33-(M24*B11)-K43-C33),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="63">
+        <f>FLOOR(IF(D11&gt;0,(B33-(V24*D11)-K43-C33),0),1)</f>
         <v>0</v>
       </c>
       <c r="F33" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="122"/>
-      <c r="AC33" s="122"/>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="44"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="139"/>
+      <c r="AI33" s="140"/>
+      <c r="AJ33" s="41"/>
     </row>
     <row r="34" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="69">
-        <f>IF(B12&gt;0,(B34-(M24*B12)-K43-C34),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="70">
-        <f>IF(D12&gt;0,(B34-(V24*D12)-K43-C34),0)</f>
+      <c r="B34" s="64"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="65">
+        <f>FLOOR(IF(B12&gt;0,(B34-(M24*B12)-K43-C34),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="66">
+        <f>FLOOR(IF(D12&gt;0,(B34-(V24*D12)-K43-C34),0),1)</f>
         <v>0</v>
       </c>
       <c r="F34" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="122"/>
-      <c r="AC34" s="122"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="93"/>
-      <c r="AF34" s="93"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="44"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="118"/>
+      <c r="AE34" s="135"/>
+      <c r="AF34" s="135"/>
+      <c r="AG34" s="139"/>
+      <c r="AH34" s="139"/>
+      <c r="AI34" s="140"/>
+      <c r="AJ34" s="41"/>
     </row>
     <row r="35" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="66">
-        <f>IF(B13&gt;0,(B35-(M24*B13)-K43-C35),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="67">
-        <f>IF(D13&gt;0,(B35-(V24*D13)-K43-C35),0)</f>
+      <c r="B35" s="61"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="62">
+        <f>FLOOR(IF(B13&gt;0,(B35-(M24*B13)-K43-C35),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="63">
+        <f>FLOOR(IF(D13&gt;0,(B35-(V24*D13)-K43-C35),0),1)</f>
         <v>0</v>
       </c>
       <c r="F35" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="93"/>
-      <c r="AF35" s="93"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="44"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="118"/>
+      <c r="Y35" s="118"/>
+      <c r="Z35" s="118"/>
+      <c r="AA35" s="118"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="118"/>
+      <c r="AD35" s="118"/>
+      <c r="AE35" s="135"/>
+      <c r="AF35" s="135"/>
+      <c r="AG35" s="139"/>
+      <c r="AH35" s="139"/>
+      <c r="AI35" s="140"/>
+      <c r="AJ35" s="41"/>
     </row>
     <row r="36" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="69">
-        <f>IF(B14&gt;0,(B36-(M24*B14)-K43-C36),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="70">
-        <f>IF(D14&gt;0,(B36-(V24*D14)-K43-C36),0)</f>
+      <c r="B36" s="64"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="65">
+        <f>FLOOR(IF(B14&gt;0,(B36-(M24*B14)-K43-C36),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="66">
+        <f>FLOOR(IF(D14&gt;0,(B36-(V24*D14)-K43-C36),0),1)</f>
         <v>0</v>
       </c>
       <c r="F36" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="122"/>
-      <c r="AB36" s="122"/>
-      <c r="AC36" s="122"/>
-      <c r="AD36" s="122"/>
-      <c r="AE36" s="93"/>
-      <c r="AF36" s="93"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="44"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="118"/>
+      <c r="W36" s="118"/>
+      <c r="X36" s="118"/>
+      <c r="Y36" s="118"/>
+      <c r="Z36" s="118"/>
+      <c r="AA36" s="118"/>
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="118"/>
+      <c r="AD36" s="118"/>
+      <c r="AE36" s="135"/>
+      <c r="AF36" s="135"/>
+      <c r="AG36" s="139"/>
+      <c r="AH36" s="139"/>
+      <c r="AI36" s="140"/>
+      <c r="AJ36" s="41"/>
     </row>
     <row r="37" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="66">
-        <f>IF(B15&gt;0,(B37-(M24*B15)-K43-C37),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="67">
-        <f>IF(D15&gt;0,(B37-(V24*D15)-K43-C37),0)</f>
+      <c r="B37" s="61"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="62">
+        <f>FLOOR(IF(B15&gt;0,(B37-(M24*B15)-K43-C37),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="63">
+        <f>FLOOR(IF(D15&gt;0,(B37-(V24*D15)-K43-C37),0),1)</f>
         <v>0</v>
       </c>
       <c r="F37" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="122"/>
-      <c r="AB37" s="122"/>
-      <c r="AC37" s="122"/>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="44"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="118"/>
+      <c r="Y37" s="118"/>
+      <c r="Z37" s="118"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="118"/>
+      <c r="AD37" s="118"/>
+      <c r="AE37" s="135"/>
+      <c r="AF37" s="135"/>
+      <c r="AG37" s="139"/>
+      <c r="AH37" s="139"/>
+      <c r="AI37" s="140"/>
+      <c r="AJ37" s="41"/>
     </row>
     <row r="38" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="69">
-        <f>IF(B16&gt;0,(B38-(M24*B16)-K43-C38),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="70">
-        <f>IF(D16&gt;0,(B38-(V24*D16)-K43-C38),0)</f>
+      <c r="B38" s="64"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="65">
+        <f>FLOOR(IF(B16&gt;0,(B38-(M24*B16)-K43-C38),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="66">
+        <f>FLOOR(IF(D16&gt;0,(B38-(V24*D16)-K43-C38),0),1)</f>
         <v>0</v>
       </c>
       <c r="F38" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="140"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="122"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="122"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="93"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="44"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="114"/>
+      <c r="V38" s="118"/>
+      <c r="W38" s="118"/>
+      <c r="X38" s="118"/>
+      <c r="Y38" s="118"/>
+      <c r="Z38" s="118"/>
+      <c r="AA38" s="118"/>
+      <c r="AB38" s="118"/>
+      <c r="AC38" s="118"/>
+      <c r="AD38" s="118"/>
+      <c r="AE38" s="135"/>
+      <c r="AF38" s="135"/>
+      <c r="AG38" s="139"/>
+      <c r="AH38" s="139"/>
+      <c r="AI38" s="140"/>
+      <c r="AJ38" s="41"/>
     </row>
     <row r="39" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>A17</f>
         <v>-</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="66">
-        <f>IF(B17&gt;0,(B39-(M24*B17)-K43-C39),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="67">
-        <f>IF(D17&gt;0,(B39-(V24*D17)-K43-C39),0)</f>
+      <c r="B39" s="61"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="62">
+        <f>FLOOR(IF(B17&gt;0,(B39-(M24*B17)-K43-C39),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="63">
+        <f>FLOOR(IF(D17&gt;0,(B39-(V24*D17)-K43-C39),0),1)</f>
         <v>0</v>
       </c>
       <c r="F39" s="7" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="118"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="118"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="122"/>
-      <c r="AB39" s="122"/>
-      <c r="AC39" s="122"/>
-      <c r="AD39" s="122"/>
-      <c r="AE39" s="93"/>
-      <c r="AF39" s="93"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
-      <c r="AI39" s="98"/>
-      <c r="AJ39" s="44"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="114"/>
+      <c r="U39" s="114"/>
+      <c r="V39" s="118"/>
+      <c r="W39" s="118"/>
+      <c r="X39" s="118"/>
+      <c r="Y39" s="118"/>
+      <c r="Z39" s="118"/>
+      <c r="AA39" s="118"/>
+      <c r="AB39" s="118"/>
+      <c r="AC39" s="118"/>
+      <c r="AD39" s="118"/>
+      <c r="AE39" s="135"/>
+      <c r="AF39" s="135"/>
+      <c r="AG39" s="139"/>
+      <c r="AH39" s="139"/>
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="41"/>
     </row>
     <row r="40" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="72">
-        <f>IF(B18&gt;0,(B40-(M24*B18)-K43-C40),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="73">
-        <f>IF(D18&gt;0,(B40-(V24*D18)-K43-C40),0)</f>
+      <c r="B40" s="67"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="68">
+        <f>FLOOR(IF(B18&gt;0,(B40-(M24*B18)-K43-C40),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="69">
+        <f>FLOOR(IF(D18&gt;0,(B40-(V24*D18)-K43-C40),0),1)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="123"/>
-      <c r="W40" s="123"/>
-      <c r="X40" s="123"/>
-      <c r="Y40" s="123"/>
-      <c r="Z40" s="123"/>
-      <c r="AA40" s="123"/>
-      <c r="AB40" s="123"/>
-      <c r="AC40" s="123"/>
-      <c r="AD40" s="123"/>
-      <c r="AE40" s="94"/>
-      <c r="AF40" s="94"/>
-      <c r="AG40" s="99"/>
-      <c r="AH40" s="99"/>
-      <c r="AI40" s="100"/>
-      <c r="AJ40" s="44"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
+      <c r="X40" s="119"/>
+      <c r="Y40" s="119"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="119"/>
+      <c r="AB40" s="119"/>
+      <c r="AC40" s="119"/>
+      <c r="AD40" s="119"/>
+      <c r="AE40" s="136"/>
+      <c r="AF40" s="136"/>
+      <c r="AG40" s="141"/>
+      <c r="AH40" s="141"/>
+      <c r="AI40" s="142"/>
+      <c r="AJ40" s="41"/>
     </row>
     <row r="41" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="75">
-        <f>IF(B19&gt;0,(B41-(M24*B19)-K43-C41),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="76">
-        <f>IF(D19&gt;0,(B41-(V24*D19)-K43-C41),0)</f>
+      <c r="B41" s="70"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="71">
+        <f>FLOOR(IF(B19&gt;0,(B41-(M24*B19)-K43-C41),0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="72">
+        <f>FLOOR(IF(D19&gt;0,(B41-(V24*D19)-K43-C41),0),1)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="3"/>
         <v>MEAL OFF</v>
       </c>
-      <c r="G41" s="125" t="s">
+      <c r="G41" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="83" t="s">
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="84"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="89" t="s">
+      <c r="N41" s="126"/>
+      <c r="O41" s="126"/>
+      <c r="P41" s="126"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="126"/>
+      <c r="S41" s="126"/>
+      <c r="T41" s="126"/>
+      <c r="U41" s="126"/>
+      <c r="V41" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
-      <c r="AC41" s="89"/>
-      <c r="AD41" s="89"/>
-      <c r="AE41" s="101" t="s">
+      <c r="W41" s="131"/>
+      <c r="X41" s="131"/>
+      <c r="Y41" s="131"/>
+      <c r="Z41" s="131"/>
+      <c r="AA41" s="131"/>
+      <c r="AB41" s="131"/>
+      <c r="AC41" s="131"/>
+      <c r="AD41" s="131"/>
+      <c r="AE41" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AF41" s="101"/>
-      <c r="AG41" s="101"/>
-      <c r="AH41" s="101"/>
-      <c r="AI41" s="103">
-        <v>50</v>
-      </c>
-      <c r="AJ41" s="44"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="145">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="41"/>
     </row>
     <row r="42" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
@@ -4412,600 +4642,641 @@
         <f>IF(B20&gt;0,COUNTIF(F25:F41, "Paid")*K43+K45,0)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="86"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="86"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="90"/>
-      <c r="AA42" s="90"/>
-      <c r="AB42" s="90"/>
-      <c r="AC42" s="90"/>
-      <c r="AD42" s="90"/>
-      <c r="AE42" s="102"/>
-      <c r="AF42" s="102"/>
-      <c r="AG42" s="102"/>
-      <c r="AH42" s="102"/>
-      <c r="AI42" s="104"/>
-      <c r="AJ42" s="44"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="132"/>
+      <c r="X42" s="132"/>
+      <c r="Y42" s="132"/>
+      <c r="Z42" s="132"/>
+      <c r="AA42" s="132"/>
+      <c r="AB42" s="132"/>
+      <c r="AC42" s="132"/>
+      <c r="AD42" s="132"/>
+      <c r="AE42" s="144"/>
+      <c r="AF42" s="144"/>
+      <c r="AG42" s="144"/>
+      <c r="AH42" s="144"/>
+      <c r="AI42" s="146"/>
+      <c r="AJ42" s="41"/>
     </row>
     <row r="43" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="129" t="s">
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="167">
-        <v>500</v>
-      </c>
-      <c r="L43" s="168"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="90"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="90"/>
-      <c r="AA43" s="90"/>
-      <c r="AB43" s="90"/>
-      <c r="AC43" s="90"/>
-      <c r="AD43" s="90"/>
-      <c r="AE43" s="124" t="s">
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="102"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="132"/>
+      <c r="X43" s="132"/>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="132"/>
+      <c r="AA43" s="132"/>
+      <c r="AB43" s="132"/>
+      <c r="AC43" s="132"/>
+      <c r="AD43" s="132"/>
+      <c r="AE43" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="AF43" s="124"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="124"/>
-      <c r="AI43" s="124"/>
-      <c r="AJ43" s="44"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120"/>
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="41"/>
     </row>
     <row r="44" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="130"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="169"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="86"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
-      <c r="AA44" s="90"/>
-      <c r="AB44" s="90"/>
-      <c r="AC44" s="90"/>
-      <c r="AD44" s="90"/>
-      <c r="AE44" s="152"/>
-      <c r="AF44" s="152"/>
-      <c r="AG44" s="152"/>
-      <c r="AH44" s="152"/>
-      <c r="AI44" s="152"/>
-      <c r="AJ44" s="44"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="127"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+      <c r="S44" s="128"/>
+      <c r="T44" s="128"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="132"/>
+      <c r="W44" s="132"/>
+      <c r="X44" s="132"/>
+      <c r="Y44" s="132"/>
+      <c r="Z44" s="132"/>
+      <c r="AA44" s="132"/>
+      <c r="AB44" s="132"/>
+      <c r="AC44" s="132"/>
+      <c r="AD44" s="132"/>
+      <c r="AE44" s="121"/>
+      <c r="AF44" s="121"/>
+      <c r="AG44" s="121"/>
+      <c r="AH44" s="121"/>
+      <c r="AI44" s="121"/>
+      <c r="AJ44" s="41"/>
     </row>
     <row r="45" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="153" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="150">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="107">
         <v>300</v>
       </c>
-      <c r="L45" s="151"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
-      <c r="X45" s="90"/>
-      <c r="Y45" s="90"/>
-      <c r="Z45" s="90"/>
-      <c r="AA45" s="90"/>
-      <c r="AB45" s="90"/>
-      <c r="AC45" s="90"/>
-      <c r="AD45" s="90"/>
-      <c r="AE45" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF45" s="155"/>
-      <c r="AG45" s="155"/>
-      <c r="AH45" s="155"/>
-      <c r="AI45" s="155"/>
-      <c r="AJ45" s="44"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="128"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+      <c r="S45" s="128"/>
+      <c r="T45" s="128"/>
+      <c r="U45" s="128"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="132"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
+      <c r="AC45" s="132"/>
+      <c r="AD45" s="132"/>
+      <c r="AE45" s="166" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF45" s="167"/>
+      <c r="AG45" s="167"/>
+      <c r="AH45" s="167"/>
+      <c r="AI45" s="167"/>
+      <c r="AJ45" s="41"/>
     </row>
     <row r="46" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="130"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="91"/>
-      <c r="W46" s="91"/>
-      <c r="X46" s="91"/>
-      <c r="Y46" s="91"/>
-      <c r="Z46" s="91"/>
-      <c r="AA46" s="91"/>
-      <c r="AB46" s="91"/>
-      <c r="AC46" s="91"/>
-      <c r="AD46" s="91"/>
-      <c r="AE46" s="155"/>
-      <c r="AF46" s="155"/>
-      <c r="AG46" s="155"/>
-      <c r="AH46" s="155"/>
-      <c r="AI46" s="155"/>
-      <c r="AJ46" s="44"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="130"/>
+      <c r="Q46" s="130"/>
+      <c r="R46" s="130"/>
+      <c r="S46" s="130"/>
+      <c r="T46" s="130"/>
+      <c r="U46" s="130"/>
+      <c r="V46" s="133"/>
+      <c r="W46" s="133"/>
+      <c r="X46" s="133"/>
+      <c r="Y46" s="133"/>
+      <c r="Z46" s="133"/>
+      <c r="AA46" s="133"/>
+      <c r="AB46" s="133"/>
+      <c r="AC46" s="133"/>
+      <c r="AD46" s="133"/>
+      <c r="AE46" s="167"/>
+      <c r="AF46" s="167"/>
+      <c r="AG46" s="167"/>
+      <c r="AH46" s="167"/>
+      <c r="AI46" s="167"/>
+      <c r="AJ46" s="41"/>
     </row>
     <row r="47" spans="1:36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="130"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="107"/>
-      <c r="V47" s="107"/>
-      <c r="W47" s="107"/>
-      <c r="X47" s="107"/>
-      <c r="Y47" s="107"/>
-      <c r="Z47" s="107"/>
-      <c r="AA47" s="107"/>
-      <c r="AB47" s="107"/>
-      <c r="AC47" s="107"/>
-      <c r="AD47" s="107"/>
-      <c r="AE47" s="155"/>
-      <c r="AF47" s="155"/>
-      <c r="AG47" s="155"/>
-      <c r="AH47" s="155"/>
-      <c r="AI47" s="155"/>
-      <c r="AJ47" s="44"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="95"/>
+      <c r="AE47" s="167"/>
+      <c r="AF47" s="167"/>
+      <c r="AG47" s="167"/>
+      <c r="AH47" s="167"/>
+      <c r="AI47" s="167"/>
+      <c r="AJ47" s="41"/>
     </row>
     <row r="48" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="82"/>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="82"/>
-      <c r="AF48" s="82"/>
-      <c r="AG48" s="82"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="82"/>
-      <c r="AJ48" s="82"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="124"/>
+      <c r="T48" s="124"/>
+      <c r="U48" s="124"/>
+      <c r="V48" s="124"/>
+      <c r="W48" s="124"/>
+      <c r="X48" s="124"/>
+      <c r="Y48" s="124"/>
+      <c r="Z48" s="124"/>
+      <c r="AA48" s="124"/>
+      <c r="AB48" s="124"/>
+      <c r="AC48" s="124"/>
+      <c r="AD48" s="124"/>
+      <c r="AE48" s="124"/>
+      <c r="AF48" s="124"/>
+      <c r="AG48" s="124"/>
+      <c r="AH48" s="124"/>
+      <c r="AI48" s="124"/>
+      <c r="AJ48" s="124"/>
     </row>
     <row r="49" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="124"/>
+      <c r="S49" s="124"/>
+      <c r="T49" s="124"/>
+      <c r="U49" s="124"/>
+      <c r="V49" s="124"/>
+      <c r="W49" s="124"/>
+      <c r="X49" s="124"/>
+      <c r="Y49" s="124"/>
+      <c r="Z49" s="124"/>
+      <c r="AA49" s="124"/>
+      <c r="AB49" s="124"/>
+      <c r="AC49" s="124"/>
+      <c r="AD49" s="124"/>
+      <c r="AE49" s="124"/>
+      <c r="AF49" s="124"/>
+      <c r="AG49" s="124"/>
+      <c r="AH49" s="124"/>
+      <c r="AI49" s="124"/>
+      <c r="AJ49" s="124"/>
     </row>
     <row r="50" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
-      <c r="AC50" s="82"/>
-      <c r="AD50" s="82"/>
-      <c r="AE50" s="82"/>
-      <c r="AF50" s="82"/>
-      <c r="AG50" s="82"/>
-      <c r="AH50" s="82"/>
-      <c r="AI50" s="82"/>
-      <c r="AJ50" s="82"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="82"/>
-      <c r="AD51" s="82"/>
-      <c r="AE51" s="82"/>
-      <c r="AF51" s="82"/>
-      <c r="AG51" s="82"/>
-      <c r="AH51" s="82"/>
-      <c r="AI51" s="82"/>
-      <c r="AJ51" s="82"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="124"/>
+      <c r="O50" s="124"/>
+      <c r="P50" s="124"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124"/>
+      <c r="S50" s="124"/>
+      <c r="T50" s="124"/>
+      <c r="U50" s="124"/>
+      <c r="V50" s="124"/>
+      <c r="W50" s="124"/>
+      <c r="X50" s="124"/>
+      <c r="Y50" s="124"/>
+      <c r="Z50" s="124"/>
+      <c r="AA50" s="124"/>
+      <c r="AB50" s="124"/>
+      <c r="AC50" s="124"/>
+      <c r="AD50" s="124"/>
+      <c r="AE50" s="124"/>
+      <c r="AF50" s="124"/>
+      <c r="AG50" s="124"/>
+      <c r="AH50" s="124"/>
+      <c r="AI50" s="124"/>
+      <c r="AJ50" s="124"/>
+    </row>
+    <row r="51" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="124"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="124"/>
+      <c r="O51" s="124"/>
+      <c r="P51" s="124"/>
+      <c r="Q51" s="124"/>
+      <c r="R51" s="124"/>
+      <c r="S51" s="124"/>
+      <c r="T51" s="124"/>
+      <c r="U51" s="124"/>
+      <c r="V51" s="124"/>
+      <c r="W51" s="124"/>
+      <c r="X51" s="124"/>
+      <c r="Y51" s="124"/>
+      <c r="Z51" s="124"/>
+      <c r="AA51" s="124"/>
+      <c r="AB51" s="124"/>
+      <c r="AC51" s="124"/>
+      <c r="AD51" s="124"/>
+      <c r="AE51" s="124"/>
+      <c r="AF51" s="124"/>
+      <c r="AG51" s="124"/>
+      <c r="AH51" s="124"/>
+      <c r="AI51" s="124"/>
+      <c r="AJ51" s="124"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="I53"/>
+      <c r="J53"/>
     </row>
     <row r="54" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="156"/>
-      <c r="B54" s="133" t="s">
+      <c r="B54" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54"/>
+      <c r="J54"/>
       <c r="U54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="156"/>
-      <c r="B55" s="133"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="I55"/>
+      <c r="J55"/>
     </row>
     <row r="56" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="156"/>
-      <c r="B56" s="137" t="s">
+      <c r="B56" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="137"/>
-      <c r="D56" s="134" t="s">
+      <c r="C56" s="90"/>
+      <c r="D56" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="134"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="168"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="I56"/>
+      <c r="J56"/>
     </row>
     <row r="57" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="168"/>
+      <c r="G57" s="168"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="I57"/>
+      <c r="J57"/>
     </row>
     <row r="58" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="136">
-        <f>IF(B20&gt;0,(B42-B22+300),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="136"/>
-      <c r="D58" s="135">
+      <c r="B58" s="89">
+        <f>IF(B20&gt;0,(B42-B22+300-C42),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="89"/>
+      <c r="D58" s="88">
         <f>IF(B20&gt;0,F42,0)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="135"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="169">
+        <f>17-COUNTIF(A3:A19,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="169"/>
       <c r="H58" s="29"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="I58"/>
+      <c r="J58"/>
     </row>
     <row r="59" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="25"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="169"/>
       <c r="H59" s="29"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="I59"/>
+      <c r="J59"/>
     </row>
     <row r="60" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="156"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="25"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="169"/>
       <c r="H60" s="29"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="I60"/>
+      <c r="J60"/>
     </row>
     <row r="61" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="157"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
       <c r="H61" s="29"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
+      <c r="I61"/>
+      <c r="J61"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="157" t="s">
+      <c r="A62" s="175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="175">
+        <v>1</v>
+      </c>
+      <c r="C62" s="176"/>
+      <c r="H62" s="29"/>
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" s="175" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="175">
+        <v>2</v>
+      </c>
+      <c r="C63" s="176"/>
+      <c r="H63" s="29"/>
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="175">
+        <v>3</v>
+      </c>
+      <c r="C64" s="176"/>
+      <c r="H64" s="29"/>
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="175" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="175">
+        <v>4</v>
+      </c>
+      <c r="C65" s="176"/>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="175">
+        <v>5</v>
+      </c>
+      <c r="C66" s="176"/>
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B67" s="175">
         <v>6</v>
       </c>
-      <c r="H62" s="29"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="157" t="s">
+      <c r="C67" s="176"/>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="43">
+      <c r="B68" s="175">
         <v>7</v>
       </c>
-      <c r="H63" s="29"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A64" s="157" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="43">
-        <v>1</v>
-      </c>
-      <c r="H64" s="29"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="157" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="43">
-        <v>2</v>
-      </c>
-      <c r="H65" s="29"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="157" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="43">
-        <v>3</v>
-      </c>
-      <c r="H66" s="29"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="43">
-        <v>4</v>
-      </c>
-      <c r="H67" s="29"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="157" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="43">
-        <v>5</v>
-      </c>
+      <c r="C68" s="176"/>
       <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="156"/>
+      <c r="A69" s="176"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
       <c r="H69" s="29"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="156"/>
+      <c r="A70" s="176"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="176"/>
       <c r="H70" s="29"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="156"/>
+      <c r="A71" s="176"/>
+      <c r="B71" s="176"/>
+      <c r="C71" s="176"/>
       <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="156"/>
+      <c r="A72" s="176"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="176"/>
       <c r="H72" s="29"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="156"/>
+      <c r="A73" s="176"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="176"/>
       <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="156"/>
+      <c r="A74" s="176"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="176"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="156"/>
+      <c r="A75" s="176"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="176"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="176"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="176"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="176"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iqCGwjZFdHicT/Y1RTrYvFJZGKxfhD4rCjkeHe1L/Dityf4OEOOszYGqn3nJl0wopkJA179i5fQqK2YSMW9DBQ==" saltValue="x4pliQ+P+MG84yR61UkGkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="34">
-    <mergeCell ref="B54:E55"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="D58:E61"/>
-    <mergeCell ref="B58:C61"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="G41:L42"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="A43:F47"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="M47:U47"/>
-    <mergeCell ref="V47:AD47"/>
-    <mergeCell ref="M24:U40"/>
-    <mergeCell ref="V24:AD40"/>
-    <mergeCell ref="AE43:AI44"/>
-    <mergeCell ref="AE45:AI47"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uTXAVumej7xPtYYEES3x4wD+cqGFQ0hp0xJ+b5Xe7y3iO/r5SX3Ezz7mrSJD9o2SF1w1xDXsI8uF7PAwtcTBjQ==" saltValue="bqbPbShG0WU8yjurbnsIFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="36">
+    <mergeCell ref="F56:G57"/>
+    <mergeCell ref="F58:G61"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="A48:AJ51"/>
     <mergeCell ref="M41:U46"/>
@@ -5021,85 +5292,112 @@
     <mergeCell ref="G24:L40"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="M47:U47"/>
+    <mergeCell ref="V47:AD47"/>
+    <mergeCell ref="M24:U40"/>
+    <mergeCell ref="V24:AD40"/>
+    <mergeCell ref="AE43:AI44"/>
+    <mergeCell ref="AE45:AI47"/>
+    <mergeCell ref="G41:L42"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="A43:F47"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="D58:E61"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="B54:G55"/>
   </mergeCells>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="lessThan">
       <formula>$D$25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>$D$25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B19">
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>AND(B3&gt;0,B3&lt;AI41)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C25:C41">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
       <formula>AND(D3&gt;0,D3&lt;AI41)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThanOrEqual">
+      <formula>"AI41"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D19">
+    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
+      <formula>AND(D6&gt;0,D6&lt;AI46)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThanOrEqual">
       <formula>"AI41"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D41">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E41">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E41">
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:AI18">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>E3&gt;2.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>E3=2.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>E3=1.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>E3=0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:AI19">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>E3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>E3=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H73">
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="greaterThanOrEqual">
-      <formula>"AI41"</formula>
+  <conditionalFormatting sqref="E22:AI22">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>E22&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>E22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:L40">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$G$24&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(B3&gt;0,B3&lt;50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D19">
-    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
-      <formula>AND(D6&gt;0,D6&lt;AI46)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H57:H73">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThanOrEqual">
       <formula>"AI41"</formula>
     </cfRule>
   </conditionalFormatting>
